--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3202,28 +3202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2566.20708283682</v>
+        <v>2680.595727378065</v>
       </c>
       <c r="AB2" t="n">
-        <v>3511.197743803855</v>
+        <v>3667.709333736032</v>
       </c>
       <c r="AC2" t="n">
-        <v>3176.093959132067</v>
+        <v>3317.668302586507</v>
       </c>
       <c r="AD2" t="n">
-        <v>2566207.08283682</v>
+        <v>2680595.727378066</v>
       </c>
       <c r="AE2" t="n">
-        <v>3511197.743803855</v>
+        <v>3667709.333736032</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.019294494980186e-06</v>
+        <v>1.72316791728463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.87916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3176093.959132067</v>
+        <v>3317668.302586507</v>
       </c>
     </row>
     <row r="3">
@@ -3308,28 +3308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>864.3339206744388</v>
+        <v>926.7354850473522</v>
       </c>
       <c r="AB3" t="n">
-        <v>1182.619801988146</v>
+        <v>1268.000375325892</v>
       </c>
       <c r="AC3" t="n">
-        <v>1069.752227903713</v>
+        <v>1146.984199154492</v>
       </c>
       <c r="AD3" t="n">
-        <v>864333.9206744388</v>
+        <v>926735.4850473522</v>
       </c>
       <c r="AE3" t="n">
-        <v>1182619.801988146</v>
+        <v>1268000.375325892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.918526106123433e-06</v>
+        <v>3.243363572378728e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.56111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1069752.227903713</v>
+        <v>1146984.199154492</v>
       </c>
     </row>
     <row r="4">
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.8660025105406</v>
+        <v>705.5240288374149</v>
       </c>
       <c r="AB4" t="n">
-        <v>908.3307523359309</v>
+        <v>965.329101778775</v>
       </c>
       <c r="AC4" t="n">
-        <v>821.6409401832067</v>
+        <v>873.1994471529116</v>
       </c>
       <c r="AD4" t="n">
-        <v>663866.0025105407</v>
+        <v>705524.0288374149</v>
       </c>
       <c r="AE4" t="n">
-        <v>908330.7523359309</v>
+        <v>965329.101778775</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.247349605720591e-06</v>
+        <v>3.799256013420599e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>821640.9401832067</v>
+        <v>873199.4471529116</v>
       </c>
     </row>
     <row r="5">
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>573.5523501048361</v>
+        <v>615.1250355771389</v>
       </c>
       <c r="AB5" t="n">
-        <v>784.7596287573039</v>
+        <v>841.6412110779503</v>
       </c>
       <c r="AC5" t="n">
-        <v>709.8632712057625</v>
+        <v>761.3161551435287</v>
       </c>
       <c r="AD5" t="n">
-        <v>573552.3501048362</v>
+        <v>615125.0355771389</v>
       </c>
       <c r="AE5" t="n">
-        <v>784759.6287573038</v>
+        <v>841641.2110779503</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.420076767886977e-06</v>
+        <v>4.091259851128486e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.372222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>709863.2712057625</v>
+        <v>761316.1551435287</v>
       </c>
     </row>
     <row r="6">
@@ -3626,28 +3626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>511.1127516132364</v>
+        <v>563.0144909269974</v>
       </c>
       <c r="AB6" t="n">
-        <v>699.3270154604245</v>
+        <v>770.3412649326486</v>
       </c>
       <c r="AC6" t="n">
-        <v>632.5842266165116</v>
+        <v>696.8209757882317</v>
       </c>
       <c r="AD6" t="n">
-        <v>511112.7516132364</v>
+        <v>563014.4909269974</v>
       </c>
       <c r="AE6" t="n">
-        <v>699327.0154604245</v>
+        <v>770341.2649326486</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.535909003326259e-06</v>
+        <v>4.287079992294078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.990277777777777</v>
       </c>
       <c r="AH6" t="n">
-        <v>632584.2266165116</v>
+        <v>696820.9757882317</v>
       </c>
     </row>
     <row r="7">
@@ -3732,28 +3732,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.7233139941396</v>
+        <v>516.3812508124629</v>
       </c>
       <c r="AB7" t="n">
-        <v>649.5373815212911</v>
+        <v>706.5356084945868</v>
       </c>
       <c r="AC7" t="n">
-        <v>587.5464454603389</v>
+        <v>639.1048416488173</v>
       </c>
       <c r="AD7" t="n">
-        <v>474723.3139941395</v>
+        <v>516381.2508124629</v>
       </c>
       <c r="AE7" t="n">
-        <v>649537.3815212911</v>
+        <v>706535.6084945868</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.606662950666375e-06</v>
+        <v>4.406693050814623e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.773611111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>587546.4454603388</v>
+        <v>639104.8416488173</v>
       </c>
     </row>
     <row r="8">
@@ -3838,28 +3838,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>462.1634049104396</v>
+        <v>503.8213417287631</v>
       </c>
       <c r="AB8" t="n">
-        <v>632.3523598088908</v>
+        <v>689.3505867821864</v>
       </c>
       <c r="AC8" t="n">
-        <v>572.0015381008408</v>
+        <v>623.559934289319</v>
       </c>
       <c r="AD8" t="n">
-        <v>462163.4049104396</v>
+        <v>503821.3417287631</v>
       </c>
       <c r="AE8" t="n">
-        <v>632352.3598088908</v>
+        <v>689350.5867821864</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.630150343494744e-06</v>
+        <v>4.446399653746185e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.704166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>572001.5381008408</v>
+        <v>623559.934289319</v>
       </c>
     </row>
     <row r="9">
@@ -3944,28 +3944,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>463.396496972359</v>
+        <v>505.0544337906823</v>
       </c>
       <c r="AB9" t="n">
-        <v>634.0395307681912</v>
+        <v>691.0377577414869</v>
       </c>
       <c r="AC9" t="n">
-        <v>573.5276878317447</v>
+        <v>625.0860840202231</v>
       </c>
       <c r="AD9" t="n">
-        <v>463396.496972359</v>
+        <v>505054.4337906822</v>
       </c>
       <c r="AE9" t="n">
-        <v>634039.5307681912</v>
+        <v>691037.7577414869</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.630442112349754e-06</v>
+        <v>4.446892903472043e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.702777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>573527.6878317448</v>
+        <v>625086.0840202231</v>
       </c>
     </row>
     <row r="10">
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>463.5545671010325</v>
+        <v>505.2125039193558</v>
       </c>
       <c r="AB10" t="n">
-        <v>634.2558092918042</v>
+        <v>691.2540362650999</v>
       </c>
       <c r="AC10" t="n">
-        <v>573.7233250366129</v>
+        <v>625.2817212250912</v>
       </c>
       <c r="AD10" t="n">
-        <v>463554.5671010325</v>
+        <v>505212.5039193558</v>
       </c>
       <c r="AE10" t="n">
-        <v>634255.8092918042</v>
+        <v>691254.0362650999</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.635256298457433e-06</v>
+        <v>4.455031523948699e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.688888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>573723.3250366129</v>
+        <v>625281.7212250913</v>
       </c>
     </row>
   </sheetData>
@@ -4347,28 +4347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1542.425739851165</v>
+        <v>1623.150282602046</v>
       </c>
       <c r="AB2" t="n">
-        <v>2110.414944285489</v>
+        <v>2220.865824992725</v>
       </c>
       <c r="AC2" t="n">
-        <v>1908.999903988858</v>
+        <v>2008.909507660181</v>
       </c>
       <c r="AD2" t="n">
-        <v>1542425.739851165</v>
+        <v>1623150.282602046</v>
       </c>
       <c r="AE2" t="n">
-        <v>2110414.944285489</v>
+        <v>2220865.824992725</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.346919937956274e-06</v>
+        <v>2.332583836352363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.56111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1908999.903988858</v>
+        <v>2008909.507660181</v>
       </c>
     </row>
     <row r="3">
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.0595448007658</v>
+        <v>721.5123840200665</v>
       </c>
       <c r="AB3" t="n">
-        <v>918.1732742541051</v>
+        <v>987.2050746961279</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.5441056235766</v>
+        <v>892.9876079181531</v>
       </c>
       <c r="AD3" t="n">
-        <v>671059.5448007658</v>
+        <v>721512.3840200665</v>
       </c>
       <c r="AE3" t="n">
-        <v>918173.2742541051</v>
+        <v>987205.0746961279</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.17438907182902e-06</v>
+        <v>3.765587441363009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.640277777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>830544.1056235766</v>
+        <v>892987.6079181532</v>
       </c>
     </row>
     <row r="4">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>529.6023967459874</v>
+        <v>569.8794167754074</v>
       </c>
       <c r="AB4" t="n">
-        <v>724.6253636366279</v>
+        <v>779.7341593375972</v>
       </c>
       <c r="AC4" t="n">
-        <v>655.468135949233</v>
+        <v>705.3174255341819</v>
       </c>
       <c r="AD4" t="n">
-        <v>529602.3967459875</v>
+        <v>569879.4167754074</v>
       </c>
       <c r="AE4" t="n">
-        <v>724625.3636366279</v>
+        <v>779734.1593375972</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.47169240827427e-06</v>
+        <v>4.280454685913614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.480555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>655468.135949233</v>
+        <v>705317.4255341819</v>
       </c>
     </row>
     <row r="5">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.7919186581013</v>
+        <v>504.0740761682588</v>
       </c>
       <c r="AB5" t="n">
-        <v>620.8981229945338</v>
+        <v>689.6963891921612</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.6404775719235</v>
+        <v>623.8727338026224</v>
       </c>
       <c r="AD5" t="n">
-        <v>453791.9186581013</v>
+        <v>504074.0761682588</v>
       </c>
       <c r="AE5" t="n">
-        <v>620898.1229945337</v>
+        <v>689696.3891921612</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.63271913923218e-06</v>
+        <v>4.559319330550921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.961111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>561640.4775719235</v>
+        <v>623872.7338026224</v>
       </c>
     </row>
     <row r="6">
@@ -4771,28 +4771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>427.5049312590268</v>
+        <v>467.8672026344673</v>
       </c>
       <c r="AB6" t="n">
-        <v>584.9311071350833</v>
+        <v>640.1565474887016</v>
       </c>
       <c r="AC6" t="n">
-        <v>529.1061032260752</v>
+        <v>579.0609050617364</v>
       </c>
       <c r="AD6" t="n">
-        <v>427504.9312590268</v>
+        <v>467867.2026344673</v>
       </c>
       <c r="AE6" t="n">
-        <v>584931.1071350833</v>
+        <v>640156.5474887015</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.691877975722809e-06</v>
+        <v>4.661770071598555e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.786111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>529106.1032260752</v>
+        <v>579060.9050617365</v>
       </c>
     </row>
     <row r="7">
@@ -4877,28 +4877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.2010063934704</v>
+        <v>468.5632777689111</v>
       </c>
       <c r="AB7" t="n">
-        <v>585.8835078426969</v>
+        <v>641.1089481963149</v>
       </c>
       <c r="AC7" t="n">
-        <v>529.9676081468568</v>
+        <v>579.9224099825182</v>
       </c>
       <c r="AD7" t="n">
-        <v>428201.0063934705</v>
+        <v>468563.277768911</v>
       </c>
       <c r="AE7" t="n">
-        <v>585883.5078426969</v>
+        <v>641108.948196315</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.696254522299921e-06</v>
+        <v>4.66934933560463e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.773611111111112</v>
       </c>
       <c r="AH7" t="n">
-        <v>529967.6081468569</v>
+        <v>579922.4099825182</v>
       </c>
     </row>
   </sheetData>
@@ -5174,28 +5174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.9339155910561</v>
+        <v>530.510743654633</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.507977086143</v>
+        <v>725.8682039504743</v>
       </c>
       <c r="AC2" t="n">
-        <v>600.1837069923351</v>
+        <v>656.5923613278628</v>
       </c>
       <c r="AD2" t="n">
-        <v>484933.9155910561</v>
+        <v>530510.7436546329</v>
       </c>
       <c r="AE2" t="n">
-        <v>663507.977086143</v>
+        <v>725868.2039504743</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397168313372465e-06</v>
+        <v>4.535958294877762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>600183.7069923352</v>
+        <v>656592.3613278628</v>
       </c>
     </row>
     <row r="3">
@@ -5280,28 +5280,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.7122997553268</v>
+        <v>397.0885108601677</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.5424820287856</v>
+        <v>543.3140188676014</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.4394802351816</v>
+        <v>491.4608914528915</v>
       </c>
       <c r="AD3" t="n">
-        <v>360712.2997553268</v>
+        <v>397088.5108601677</v>
       </c>
       <c r="AE3" t="n">
-        <v>493542.4820287856</v>
+        <v>543314.0188676014</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.784318994963142e-06</v>
+        <v>5.268530695293918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.399999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>446439.4802351816</v>
+        <v>491460.8914528915</v>
       </c>
     </row>
     <row r="4">
@@ -5386,28 +5386,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.9837564863168</v>
+        <v>399.3599675911577</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.6503893377246</v>
+        <v>546.4219261765403</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.2507732325308</v>
+        <v>494.2721844502407</v>
       </c>
       <c r="AD4" t="n">
-        <v>362983.7564863169</v>
+        <v>399359.9675911576</v>
       </c>
       <c r="AE4" t="n">
-        <v>496650.3893377246</v>
+        <v>546421.9261765403</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.784655794164178e-06</v>
+        <v>5.269167991858003e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.398611111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>449250.7732325308</v>
+        <v>494272.1844502407</v>
       </c>
     </row>
     <row r="5">
@@ -5492,28 +5492,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.6569023490397</v>
+        <v>401.0331134538806</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.939661321088</v>
+        <v>548.7111981599037</v>
       </c>
       <c r="AC5" t="n">
-        <v>451.3215603108154</v>
+        <v>496.3429715285253</v>
       </c>
       <c r="AD5" t="n">
-        <v>364656.9023490397</v>
+        <v>401033.1134538805</v>
       </c>
       <c r="AE5" t="n">
-        <v>498939.661321088</v>
+        <v>548711.1981599036</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.788192185775054e-06</v>
+        <v>5.2758596057809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>451321.5603108154</v>
+        <v>496342.9715285252</v>
       </c>
     </row>
   </sheetData>
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>746.670039553134</v>
+        <v>803.4792320263765</v>
       </c>
       <c r="AB2" t="n">
-        <v>1021.626888873902</v>
+        <v>1099.355732260482</v>
       </c>
       <c r="AC2" t="n">
-        <v>924.1242524621198</v>
+        <v>994.4347641290021</v>
       </c>
       <c r="AD2" t="n">
-        <v>746670.039553134</v>
+        <v>803479.2320263765</v>
       </c>
       <c r="AE2" t="n">
-        <v>1021626.888873902</v>
+        <v>1099355.732260482</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967706595720611e-06</v>
+        <v>3.584734081155778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.37083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>924124.2524621198</v>
+        <v>994434.7641290021</v>
       </c>
     </row>
     <row r="3">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.5705990211716</v>
+        <v>458.4718707910408</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.4432478461024</v>
+        <v>627.301439967738</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.5237519113404</v>
+        <v>567.432670960317</v>
       </c>
       <c r="AD3" t="n">
-        <v>420570.5990211716</v>
+        <v>458471.8707910408</v>
       </c>
       <c r="AE3" t="n">
-        <v>575443.2478461023</v>
+        <v>627301.439967738</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66560286006167e-06</v>
+        <v>4.856149509317464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.394444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>520523.7519113404</v>
+        <v>567432.6709603169</v>
       </c>
     </row>
     <row r="4">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.4091736785011</v>
+        <v>423.3104454483704</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.3338344796537</v>
+        <v>579.1920266012893</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.0058334345998</v>
+        <v>523.9147524835764</v>
       </c>
       <c r="AD4" t="n">
-        <v>385409.1736785011</v>
+        <v>423310.4454483704</v>
       </c>
       <c r="AE4" t="n">
-        <v>527333.8344796536</v>
+        <v>579192.0266012893</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.777569135157938e-06</v>
+        <v>5.060127746291696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>477005.8334345998</v>
+        <v>523914.7524835764</v>
       </c>
     </row>
     <row r="5">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.0713291974614</v>
+        <v>424.9726009673307</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.6080689898213</v>
+        <v>581.4662611114569</v>
       </c>
       <c r="AC5" t="n">
-        <v>479.0630181950253</v>
+        <v>525.9719372440018</v>
       </c>
       <c r="AD5" t="n">
-        <v>387071.3291974614</v>
+        <v>424972.6009673307</v>
       </c>
       <c r="AE5" t="n">
-        <v>529608.0689898212</v>
+        <v>581466.2611114569</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.777891340266129e-06</v>
+        <v>5.060714734023996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.054166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>479063.0181950253</v>
+        <v>525971.9372440018</v>
       </c>
     </row>
     <row r="6">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.3109278409967</v>
+        <v>426.2121996108659</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.3041425411388</v>
+        <v>583.1623346627745</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.5972208670592</v>
+        <v>527.5061399160359</v>
       </c>
       <c r="AD6" t="n">
-        <v>388310.9278409967</v>
+        <v>426212.1996108659</v>
       </c>
       <c r="AE6" t="n">
-        <v>531304.1425411388</v>
+        <v>583162.3346627745</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.781757801564417e-06</v>
+        <v>5.067758586811595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.043055555555554</v>
       </c>
       <c r="AH6" t="n">
-        <v>480597.2208670592</v>
+        <v>527506.1399160358</v>
       </c>
     </row>
   </sheetData>
@@ -6510,28 +6510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.8945056870326</v>
+        <v>392.8224146677975</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.3728548202672</v>
+        <v>537.4769578503194</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.8130595532298</v>
+        <v>486.1809113467323</v>
       </c>
       <c r="AD2" t="n">
-        <v>348894.5056870325</v>
+        <v>392822.4146677976</v>
       </c>
       <c r="AE2" t="n">
-        <v>477372.8548202672</v>
+        <v>537476.9578503194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.71982565269673e-06</v>
+        <v>5.329981950188313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.931944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>431813.0595532298</v>
+        <v>486180.9113467323</v>
       </c>
     </row>
     <row r="3">
@@ -6616,28 +6616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.8223602758516</v>
+        <v>390.7502692566167</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.5376540520858</v>
+        <v>534.641757082138</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.2484463671345</v>
+        <v>483.616298160637</v>
       </c>
       <c r="AD3" t="n">
-        <v>346822.3602758516</v>
+        <v>390750.2692566167</v>
       </c>
       <c r="AE3" t="n">
-        <v>474537.6540520858</v>
+        <v>534641.7570821381</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.740813311260398e-06</v>
+        <v>5.371110998739698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.862500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>429248.4463671345</v>
+        <v>483616.298160637</v>
       </c>
     </row>
     <row r="4">
@@ -6722,28 +6722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.9095507832398</v>
+        <v>392.8374597640047</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.3934401846407</v>
+        <v>537.4975432146931</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.8316802793193</v>
+        <v>486.1995320728217</v>
       </c>
       <c r="AD4" t="n">
-        <v>348909.5507832398</v>
+        <v>392837.4597640047</v>
       </c>
       <c r="AE4" t="n">
-        <v>477393.4401846407</v>
+        <v>537497.5432146931</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.744136357199646e-06</v>
+        <v>5.377623098093668e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.852777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>431831.6802793193</v>
+        <v>486199.5320728217</v>
       </c>
     </row>
   </sheetData>
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1741.314592926001</v>
+        <v>1822.634993500108</v>
       </c>
       <c r="AB2" t="n">
-        <v>2382.543447419413</v>
+        <v>2493.809607087781</v>
       </c>
       <c r="AC2" t="n">
-        <v>2155.156844718434</v>
+        <v>2255.803918271089</v>
       </c>
       <c r="AD2" t="n">
-        <v>1741314.592926001</v>
+        <v>1822634.993500108</v>
       </c>
       <c r="AE2" t="n">
-        <v>2382543.447419413</v>
+        <v>2493809.607087781</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.261536381660734e-06</v>
+        <v>2.170449636959048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.46527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2155156.844718434</v>
+        <v>2255803.918271089</v>
       </c>
     </row>
     <row r="3">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>714.4904603454297</v>
+        <v>765.3689927955099</v>
       </c>
       <c r="AB3" t="n">
-        <v>977.5973689390809</v>
+        <v>1047.211621639717</v>
       </c>
       <c r="AC3" t="n">
-        <v>884.296848114059</v>
+        <v>947.2672142411633</v>
       </c>
       <c r="AD3" t="n">
-        <v>714490.4603454297</v>
+        <v>765368.99279551</v>
       </c>
       <c r="AE3" t="n">
-        <v>977597.3689390809</v>
+        <v>1047211.621639717</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.105801097069726e-06</v>
+        <v>3.622991213797676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.863888888888887</v>
       </c>
       <c r="AH3" t="n">
-        <v>884296.848114059</v>
+        <v>947267.2142411633</v>
       </c>
     </row>
     <row r="4">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>560.021287496053</v>
+        <v>610.8144790915619</v>
       </c>
       <c r="AB4" t="n">
-        <v>766.245831947615</v>
+        <v>835.7433175260531</v>
       </c>
       <c r="AC4" t="n">
-        <v>693.1164051793133</v>
+        <v>755.981148274479</v>
       </c>
       <c r="AD4" t="n">
-        <v>560021.287496053</v>
+        <v>610814.4790915619</v>
       </c>
       <c r="AE4" t="n">
-        <v>766245.831947615</v>
+        <v>835743.3175260532</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.412847237146724e-06</v>
+        <v>4.151258327570874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.609722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>693116.4051793134</v>
+        <v>755981.148274479</v>
       </c>
     </row>
     <row r="5">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.1352076268582</v>
+        <v>532.752782240902</v>
       </c>
       <c r="AB5" t="n">
-        <v>673.3611025481099</v>
+        <v>728.9358600559691</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.0964639891606</v>
+        <v>659.3672446401317</v>
       </c>
       <c r="AD5" t="n">
-        <v>492135.2076268583</v>
+        <v>532752.782240902</v>
       </c>
       <c r="AE5" t="n">
-        <v>673361.1025481099</v>
+        <v>728935.8600559691</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.574820432326164e-06</v>
+        <v>4.429930165961704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.066666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>609096.4639891606</v>
+        <v>659367.2446401317</v>
       </c>
     </row>
     <row r="6">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.2253766542947</v>
+        <v>479.9282026143591</v>
       </c>
       <c r="AB6" t="n">
-        <v>600.9675375944468</v>
+        <v>656.6589397549553</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.6120392696687</v>
+        <v>593.988332171352</v>
       </c>
       <c r="AD6" t="n">
-        <v>439225.3766542947</v>
+        <v>479928.2026143591</v>
       </c>
       <c r="AE6" t="n">
-        <v>600967.5375944468</v>
+        <v>656658.9397549554</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.668295267956035e-06</v>
+        <v>4.590751864017353e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.784722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>543612.0392696686</v>
+        <v>593988.332171352</v>
       </c>
     </row>
     <row r="7">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>436.3225430111933</v>
+        <v>477.0253689712577</v>
       </c>
       <c r="AB7" t="n">
-        <v>596.9957525399736</v>
+        <v>652.687154700482</v>
       </c>
       <c r="AC7" t="n">
-        <v>540.0193158063589</v>
+        <v>590.3956087080423</v>
       </c>
       <c r="AD7" t="n">
-        <v>436322.5430111933</v>
+        <v>477025.3689712577</v>
       </c>
       <c r="AE7" t="n">
-        <v>596995.7525399736</v>
+        <v>652687.154700482</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.678914009283588e-06</v>
+        <v>4.609021208916475e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.754166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>540019.3158063589</v>
+        <v>590395.6087080423</v>
       </c>
     </row>
   </sheetData>
@@ -7846,28 +7846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.7165133033137</v>
+        <v>390.6332985173278</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.7610736715068</v>
+        <v>534.4817125562583</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.3551045351581</v>
+        <v>483.4715280596832</v>
       </c>
       <c r="AD2" t="n">
-        <v>347716.5133033136</v>
+        <v>390633.2985173278</v>
       </c>
       <c r="AE2" t="n">
-        <v>475761.0736715068</v>
+        <v>534481.7125562583</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.676028152400293e-06</v>
+        <v>5.364527603799381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.288888888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>430355.1045351581</v>
+        <v>483471.5280596832</v>
       </c>
     </row>
     <row r="3">
@@ -7952,28 +7952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>349.6889714717448</v>
+        <v>392.605756685759</v>
       </c>
       <c r="AB3" t="n">
-        <v>478.4598779562673</v>
+        <v>537.180516841019</v>
       </c>
       <c r="AC3" t="n">
-        <v>432.7963387267766</v>
+        <v>485.9127622513018</v>
       </c>
       <c r="AD3" t="n">
-        <v>349688.9714717448</v>
+        <v>392605.756685759</v>
       </c>
       <c r="AE3" t="n">
-        <v>478459.8779562673</v>
+        <v>537180.5168410189</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.682113695653695e-06</v>
+        <v>5.376727051229597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.268055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>432796.3387267767</v>
+        <v>485912.7622513018</v>
       </c>
     </row>
   </sheetData>
@@ -8249,28 +8249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1081.89828873796</v>
+        <v>1150.427458747572</v>
       </c>
       <c r="AB2" t="n">
-        <v>1480.300968635163</v>
+        <v>1574.065602335922</v>
       </c>
       <c r="AC2" t="n">
-        <v>1339.02312180408</v>
+        <v>1423.838990463929</v>
       </c>
       <c r="AD2" t="n">
-        <v>1081898.28873796</v>
+        <v>1150427.458747572</v>
       </c>
       <c r="AE2" t="n">
-        <v>1480300.968635163</v>
+        <v>1574065.602335922</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.629686766777775e-06</v>
+        <v>2.886296360934841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1339023.12180408</v>
+        <v>1423838.990463929</v>
       </c>
     </row>
     <row r="3">
@@ -8355,28 +8355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>549.1345434761467</v>
+        <v>588.3916399619576</v>
       </c>
       <c r="AB3" t="n">
-        <v>751.3501084903302</v>
+        <v>805.063399803082</v>
       </c>
       <c r="AC3" t="n">
-        <v>679.6423086625126</v>
+        <v>728.2292788394532</v>
       </c>
       <c r="AD3" t="n">
-        <v>549134.5434761468</v>
+        <v>588391.6399619576</v>
       </c>
       <c r="AE3" t="n">
-        <v>751350.1084903302</v>
+        <v>805063.399803082</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.396717090269308e-06</v>
+        <v>4.244764059483793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.011111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>679642.3086625126</v>
+        <v>728229.2788394531</v>
       </c>
     </row>
     <row r="4">
@@ -8461,28 +8461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.341334978833</v>
+        <v>474.5130906100722</v>
       </c>
       <c r="AB4" t="n">
-        <v>595.6532204222548</v>
+        <v>649.2497446128091</v>
       </c>
       <c r="AC4" t="n">
-        <v>538.8049130696995</v>
+        <v>587.2862602147014</v>
       </c>
       <c r="AD4" t="n">
-        <v>435341.334978833</v>
+        <v>474513.0906100722</v>
       </c>
       <c r="AE4" t="n">
-        <v>595653.2204222548</v>
+        <v>649249.744612809</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.674888030615214e-06</v>
+        <v>4.737425464856603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.073611111111113</v>
       </c>
       <c r="AH4" t="n">
-        <v>538804.9130696995</v>
+        <v>587286.2602147014</v>
       </c>
     </row>
     <row r="5">
@@ -8567,28 +8567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>401.073659827346</v>
+        <v>440.3306668046058</v>
       </c>
       <c r="AB5" t="n">
-        <v>548.7666754968589</v>
+        <v>602.4798443400624</v>
       </c>
       <c r="AC5" t="n">
-        <v>496.3931541863043</v>
+        <v>544.9800135820184</v>
       </c>
       <c r="AD5" t="n">
-        <v>401073.659827346</v>
+        <v>440330.6668046058</v>
       </c>
       <c r="AE5" t="n">
-        <v>548766.6754968589</v>
+        <v>602479.8443400625</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.740038183776161e-06</v>
+        <v>4.852811227210548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.881944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>496393.1541863044</v>
+        <v>544980.0135820184</v>
       </c>
     </row>
     <row r="6">
@@ -8673,28 +8673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.0021448000405</v>
+        <v>442.2591517773004</v>
       </c>
       <c r="AB6" t="n">
-        <v>551.4053137152521</v>
+        <v>605.1184825584555</v>
       </c>
       <c r="AC6" t="n">
-        <v>498.7799644764861</v>
+        <v>547.3668238722003</v>
       </c>
       <c r="AD6" t="n">
-        <v>403002.1448000405</v>
+        <v>442259.1517773003</v>
       </c>
       <c r="AE6" t="n">
-        <v>551405.3137152521</v>
+        <v>605118.4825584556</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.740193673401844e-06</v>
+        <v>4.853086610891584e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.880555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>498779.9644764861</v>
+        <v>547366.8238722002</v>
       </c>
     </row>
   </sheetData>
@@ -8970,28 +8970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1365.681020538093</v>
+        <v>1445.613213234127</v>
       </c>
       <c r="AB2" t="n">
-        <v>1868.585021894642</v>
+        <v>1977.951774300819</v>
       </c>
       <c r="AC2" t="n">
-        <v>1690.249889980566</v>
+        <v>1789.178833034299</v>
       </c>
       <c r="AD2" t="n">
-        <v>1365681.020538093</v>
+        <v>1445613.213234127</v>
       </c>
       <c r="AE2" t="n">
-        <v>1868585.021894642</v>
+        <v>1977951.774300819</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.437259098854194e-06</v>
+        <v>2.506454368080746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1690249.889980566</v>
+        <v>1789178.833034299</v>
       </c>
     </row>
     <row r="3">
@@ -9076,28 +9076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>628.7863350612967</v>
+        <v>678.6267013298328</v>
       </c>
       <c r="AB3" t="n">
-        <v>860.3332037261722</v>
+        <v>928.5269916565593</v>
       </c>
       <c r="AC3" t="n">
-        <v>778.2242102477808</v>
+        <v>839.9096787686742</v>
       </c>
       <c r="AD3" t="n">
-        <v>628786.3350612967</v>
+        <v>678626.7013298328</v>
       </c>
       <c r="AE3" t="n">
-        <v>860333.2037261722</v>
+        <v>928526.9916565593</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.246231519345583e-06</v>
+        <v>3.917231630589624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.419444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>778224.2102477808</v>
+        <v>839909.6787686743</v>
       </c>
     </row>
     <row r="4">
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>498.1962545379203</v>
+        <v>538.1197699672022</v>
       </c>
       <c r="AB4" t="n">
-        <v>681.6540943263429</v>
+        <v>736.279209437881</v>
       </c>
       <c r="AC4" t="n">
-        <v>616.597984271366</v>
+        <v>666.0097550634895</v>
       </c>
       <c r="AD4" t="n">
-        <v>498196.2545379203</v>
+        <v>538119.7699672022</v>
       </c>
       <c r="AE4" t="n">
-        <v>681654.0943263429</v>
+        <v>736279.209437881</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.536760785989101e-06</v>
+        <v>4.423889302831513e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.341666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>616597.984271366</v>
+        <v>666009.7550634894</v>
       </c>
     </row>
     <row r="5">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>426.8039460083706</v>
+        <v>466.8127127836733</v>
       </c>
       <c r="AB5" t="n">
-        <v>583.971988189849</v>
+        <v>638.7137479540362</v>
       </c>
       <c r="AC5" t="n">
-        <v>528.2385212468422</v>
+        <v>577.7558042896776</v>
       </c>
       <c r="AD5" t="n">
-        <v>426803.9460083706</v>
+        <v>466812.7127836733</v>
       </c>
       <c r="AE5" t="n">
-        <v>583971.988189849</v>
+        <v>638713.7479540362</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.689871385347641e-06</v>
+        <v>4.690900818617092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.866666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>528238.5212468422</v>
+        <v>577755.8042896776</v>
       </c>
     </row>
     <row r="6">
@@ -9394,28 +9394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>419.2590910796101</v>
+        <v>459.2678578549126</v>
       </c>
       <c r="AB6" t="n">
-        <v>573.6487848208111</v>
+        <v>628.3905445849982</v>
       </c>
       <c r="AC6" t="n">
-        <v>518.9005499186383</v>
+        <v>568.4178329614739</v>
       </c>
       <c r="AD6" t="n">
-        <v>419259.0910796101</v>
+        <v>459267.8578549126</v>
       </c>
       <c r="AE6" t="n">
-        <v>573648.7848208111</v>
+        <v>628390.5445849983</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.707696201392367e-06</v>
+        <v>4.721985741350338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.815277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>518900.5499186383</v>
+        <v>568417.8329614738</v>
       </c>
     </row>
     <row r="7">
@@ -9500,28 +9500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>420.153784525042</v>
+        <v>460.1625513003445</v>
       </c>
       <c r="AB7" t="n">
-        <v>574.8729438639401</v>
+        <v>629.6147036281274</v>
       </c>
       <c r="AC7" t="n">
-        <v>520.0078769408091</v>
+        <v>569.5251599836446</v>
       </c>
       <c r="AD7" t="n">
-        <v>420153.784525042</v>
+        <v>460162.5513003445</v>
       </c>
       <c r="AE7" t="n">
-        <v>574872.9438639401</v>
+        <v>629614.7036281273</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.711961969334694e-06</v>
+        <v>4.729424868158295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.802777777777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>520007.876940809</v>
+        <v>569525.1599836446</v>
       </c>
     </row>
   </sheetData>
@@ -9797,28 +9797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2245.754019428884</v>
+        <v>2349.042931812805</v>
       </c>
       <c r="AB2" t="n">
-        <v>3072.739725057701</v>
+        <v>3214.064171766604</v>
       </c>
       <c r="AC2" t="n">
-        <v>2779.481758315368</v>
+        <v>2907.318398180475</v>
       </c>
       <c r="AD2" t="n">
-        <v>2245754.019428884</v>
+        <v>2349042.931812806</v>
       </c>
       <c r="AE2" t="n">
-        <v>3072739.725057701</v>
+        <v>3214064.171766604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097291822340604e-06</v>
+        <v>1.865323373450594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.61388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2779481.758315368</v>
+        <v>2907318.398180475</v>
       </c>
     </row>
     <row r="3">
@@ -9903,28 +9903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>815.619609144038</v>
+        <v>867.2214844172644</v>
       </c>
       <c r="AB3" t="n">
-        <v>1115.966731828505</v>
+        <v>1186.570694091401</v>
       </c>
       <c r="AC3" t="n">
-        <v>1009.460433211937</v>
+        <v>1073.326052409746</v>
       </c>
       <c r="AD3" t="n">
-        <v>815619.6091440381</v>
+        <v>867221.4844172643</v>
       </c>
       <c r="AE3" t="n">
-        <v>1115966.731828505</v>
+        <v>1186570.694091402</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.97930151818608e-06</v>
+        <v>3.364681399979227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.31805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1009460.433211937</v>
+        <v>1073326.052409746</v>
       </c>
     </row>
     <row r="4">
@@ -10009,28 +10009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.3449139375831</v>
+        <v>674.9466997022582</v>
       </c>
       <c r="AB4" t="n">
-        <v>852.8880112861497</v>
+        <v>923.4918510794981</v>
       </c>
       <c r="AC4" t="n">
-        <v>771.4895765248407</v>
+        <v>835.3550849414236</v>
       </c>
       <c r="AD4" t="n">
-        <v>623344.9139375831</v>
+        <v>674946.6997022582</v>
       </c>
       <c r="AE4" t="n">
-        <v>852888.0112861496</v>
+        <v>923491.8510794982</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.2966367838804e-06</v>
+        <v>3.904130319827309e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.893055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>771489.5765248407</v>
+        <v>835355.0849414236</v>
       </c>
     </row>
     <row r="5">
@@ -10115,28 +10115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>546.0416939765244</v>
+        <v>587.3061439259013</v>
       </c>
       <c r="AB5" t="n">
-        <v>747.1183353580568</v>
+        <v>803.5781762378444</v>
       </c>
       <c r="AC5" t="n">
-        <v>675.8144100186526</v>
+        <v>726.8858029267577</v>
       </c>
       <c r="AD5" t="n">
-        <v>546041.6939765244</v>
+        <v>587306.1439259013</v>
       </c>
       <c r="AE5" t="n">
-        <v>747118.3353580568</v>
+        <v>803578.1762378444</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.471185885075562e-06</v>
+        <v>4.20085222337674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.265277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>675814.4100186526</v>
+        <v>726885.8029267577</v>
       </c>
     </row>
     <row r="6">
@@ -10221,28 +10221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.7438533644957</v>
+        <v>540.2602982745992</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.720902030355</v>
+        <v>739.2079747015057</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.8991176962578</v>
+        <v>668.6590030809017</v>
       </c>
       <c r="AD6" t="n">
-        <v>488743.8533644957</v>
+        <v>540260.2982745992</v>
       </c>
       <c r="AE6" t="n">
-        <v>668720.9020303549</v>
+        <v>739207.9747015057</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.573386074907607e-06</v>
+        <v>4.374585772632725e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.936111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>604899.1176962578</v>
+        <v>668659.0030809017</v>
       </c>
     </row>
     <row r="7">
@@ -10327,28 +10327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>455.6709125225379</v>
+        <v>497.0206138179353</v>
       </c>
       <c r="AB7" t="n">
-        <v>623.4690452952146</v>
+        <v>680.0455308276516</v>
       </c>
       <c r="AC7" t="n">
-        <v>563.9660346565396</v>
+        <v>615.1429398153568</v>
       </c>
       <c r="AD7" t="n">
-        <v>455670.9125225379</v>
+        <v>497020.6138179353</v>
       </c>
       <c r="AE7" t="n">
-        <v>623469.0452952146</v>
+        <v>680045.5308276516</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.638382454628131e-06</v>
+        <v>4.485075310432935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>563966.0346565396</v>
+        <v>615142.9398153569</v>
       </c>
     </row>
     <row r="8">
@@ -10433,28 +10433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>452.9752956723595</v>
+        <v>494.3249969677568</v>
       </c>
       <c r="AB8" t="n">
-        <v>619.7807833985781</v>
+        <v>676.357268931015</v>
       </c>
       <c r="AC8" t="n">
-        <v>560.6297752988098</v>
+        <v>611.8066804576272</v>
       </c>
       <c r="AD8" t="n">
-        <v>452975.2956723595</v>
+        <v>494324.9969677568</v>
       </c>
       <c r="AE8" t="n">
-        <v>619780.7833985782</v>
+        <v>676357.268931015</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.646470239434983e-06</v>
+        <v>4.498824008575495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>560629.7752988099</v>
+        <v>611806.6804576272</v>
       </c>
     </row>
     <row r="9">
@@ -10539,28 +10539,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>454.2852459621194</v>
+        <v>495.6349472575168</v>
       </c>
       <c r="AB9" t="n">
-        <v>621.5731151759556</v>
+        <v>678.1496007083927</v>
       </c>
       <c r="AC9" t="n">
-        <v>562.251049446908</v>
+        <v>613.4279546057254</v>
       </c>
       <c r="AD9" t="n">
-        <v>454285.2459621194</v>
+        <v>495634.9472575168</v>
       </c>
       <c r="AE9" t="n">
-        <v>621573.1151759557</v>
+        <v>678149.6007083927</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.646617290067835e-06</v>
+        <v>4.499073984905359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>562251.0494469081</v>
+        <v>613427.9546057254</v>
       </c>
     </row>
   </sheetData>
@@ -10836,28 +10836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>841.9640516040691</v>
+        <v>909.0503944230038</v>
       </c>
       <c r="AB2" t="n">
-        <v>1152.012360237094</v>
+        <v>1243.802854122525</v>
       </c>
       <c r="AC2" t="n">
-        <v>1042.065917435568</v>
+        <v>1125.09605541334</v>
       </c>
       <c r="AD2" t="n">
-        <v>841964.0516040692</v>
+        <v>909050.3944230038</v>
       </c>
       <c r="AE2" t="n">
-        <v>1152012.360237094</v>
+        <v>1243802.854122525</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846832750333552e-06</v>
+        <v>3.330276483247181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.96388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1042065.917435568</v>
+        <v>1125096.05541334</v>
       </c>
     </row>
     <row r="3">
@@ -10942,28 +10942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.0128513424015</v>
+        <v>508.9682422935998</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.7781216582599</v>
+        <v>696.3928032002236</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.5775430298487</v>
+        <v>629.9300514562314</v>
       </c>
       <c r="AD3" t="n">
-        <v>461012.8513424015</v>
+        <v>508968.2422935998</v>
       </c>
       <c r="AE3" t="n">
-        <v>630778.1216582599</v>
+        <v>696392.8032002236</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.567175475246148e-06</v>
+        <v>4.629224878125571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.606944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>570577.5430298487</v>
+        <v>629930.0514562314</v>
       </c>
     </row>
     <row r="4">
@@ -11048,28 +11048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.8829115789914</v>
+        <v>431.752961675618</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.2455353411729</v>
+        <v>590.7434497609388</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.1168386349493</v>
+        <v>534.3637240293932</v>
       </c>
       <c r="AD4" t="n">
-        <v>383882.9115789913</v>
+        <v>431752.961675618</v>
       </c>
       <c r="AE4" t="n">
-        <v>525245.5353411728</v>
+        <v>590743.4497609388</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76555607992062e-06</v>
+        <v>4.98695205312852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.98888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>475116.8386349493</v>
+        <v>534363.7240293932</v>
       </c>
     </row>
     <row r="5">
@@ -11154,28 +11154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.8114052081201</v>
+        <v>433.6814553047467</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.884185403681</v>
+        <v>593.3820998234471</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.5036596388603</v>
+        <v>536.7505450333042</v>
       </c>
       <c r="AD5" t="n">
-        <v>385811.4052081201</v>
+        <v>433681.4553047467</v>
       </c>
       <c r="AE5" t="n">
-        <v>527884.185403681</v>
+        <v>593382.0998234471</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.765874252502295e-06</v>
+        <v>4.987525793585622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.98888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>477503.6596388603</v>
+        <v>536750.5450333043</v>
       </c>
     </row>
     <row r="6">
@@ -11260,28 +11260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.9930672599153</v>
+        <v>434.863117356542</v>
       </c>
       <c r="AB6" t="n">
-        <v>529.5009875541976</v>
+        <v>594.9989019739637</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.9661564613277</v>
+        <v>538.2130418557715</v>
       </c>
       <c r="AD6" t="n">
-        <v>386993.0672599153</v>
+        <v>434863.117356542</v>
       </c>
       <c r="AE6" t="n">
-        <v>529500.9875541977</v>
+        <v>594998.9019739637</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.769851409773235e-06</v>
+        <v>4.994697549299394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.977777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>478966.1564613277</v>
+        <v>538213.0418557716</v>
       </c>
     </row>
   </sheetData>
@@ -11557,28 +11557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.4054315905851</v>
+        <v>615.5787827419457</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.0856318969725</v>
+        <v>842.2620479667509</v>
       </c>
       <c r="AC2" t="n">
-        <v>704.7307926422766</v>
+        <v>761.8777402310124</v>
       </c>
       <c r="AD2" t="n">
-        <v>569405.431590585</v>
+        <v>615578.7827419457</v>
       </c>
       <c r="AE2" t="n">
-        <v>779085.6318969724</v>
+        <v>842262.0479667508</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.240469233157115e-06</v>
+        <v>4.179999439351331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.27361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>704730.7926422766</v>
+        <v>761877.7402310123</v>
       </c>
     </row>
     <row r="3">
@@ -11663,28 +11663,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.5172959381188</v>
+        <v>405.4389265900032</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.2216221382115</v>
+        <v>554.7394260635045</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.0994182008312</v>
+        <v>501.7958738216773</v>
       </c>
       <c r="AD3" t="n">
-        <v>368517.2959381188</v>
+        <v>405438.9265900032</v>
       </c>
       <c r="AE3" t="n">
-        <v>504221.6221382115</v>
+        <v>554739.4260635045</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.785672175249342e-06</v>
+        <v>5.197173859134312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.262499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>456099.4182008312</v>
+        <v>501795.8738216773</v>
       </c>
     </row>
     <row r="4">
@@ -11769,28 +11769,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.8480389141678</v>
+        <v>406.7696695660522</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.0424033862784</v>
+        <v>556.5602073115714</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.7464266420651</v>
+        <v>503.4428822629112</v>
       </c>
       <c r="AD4" t="n">
-        <v>369848.0389141678</v>
+        <v>406769.6695660522</v>
       </c>
       <c r="AE4" t="n">
-        <v>506042.4033862784</v>
+        <v>556560.2073115713</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.789649339568555e-06</v>
+        <v>5.204593976482272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>457746.4266420651</v>
+        <v>503442.8822629112</v>
       </c>
     </row>
     <row r="5">
@@ -11875,28 +11875,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.166113697406</v>
+        <v>408.0877443492904</v>
       </c>
       <c r="AB5" t="n">
-        <v>507.8458514540604</v>
+        <v>558.3636553793532</v>
       </c>
       <c r="AC5" t="n">
-        <v>459.3777561574132</v>
+        <v>505.0742117782593</v>
       </c>
       <c r="AD5" t="n">
-        <v>371166.113697406</v>
+        <v>408087.7443492904</v>
       </c>
       <c r="AE5" t="n">
-        <v>507845.8514540604</v>
+        <v>558363.6553793532</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793460788707802e-06</v>
+        <v>5.211704922274068e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.238888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>459377.7561574132</v>
+        <v>505074.2117782593</v>
       </c>
     </row>
   </sheetData>
@@ -21329,28 +21329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.4541189875575</v>
+        <v>447.3214990820794</v>
       </c>
       <c r="AB2" t="n">
-        <v>562.9696776733975</v>
+        <v>612.0450094758551</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.2406417691529</v>
+        <v>553.6322927820446</v>
       </c>
       <c r="AD2" t="n">
-        <v>411454.1189875575</v>
+        <v>447321.4990820793</v>
       </c>
       <c r="AE2" t="n">
-        <v>562969.6776733976</v>
+        <v>612045.009475855</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.579770671391952e-06</v>
+        <v>4.960994668290401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.229166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>509240.6417691529</v>
+        <v>553632.2927820446</v>
       </c>
     </row>
     <row r="3">
@@ -21435,28 +21435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.6918219037269</v>
+        <v>397.4405942816188</v>
       </c>
       <c r="AB3" t="n">
-        <v>482.5685103937165</v>
+        <v>543.795754937655</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.5128490508975</v>
+        <v>491.89665130854</v>
       </c>
       <c r="AD3" t="n">
-        <v>352691.8219037269</v>
+        <v>397440.5942816188</v>
       </c>
       <c r="AE3" t="n">
-        <v>482568.5103937165</v>
+        <v>543795.7549376551</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.773309184781646e-06</v>
+        <v>5.3331764066451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.584722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>436512.8490508975</v>
+        <v>491896.65130854</v>
       </c>
     </row>
     <row r="4">
@@ -21541,28 +21541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.1718861348359</v>
+        <v>399.9206585127277</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.9618436874317</v>
+        <v>547.1890882313702</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.5823273776338</v>
+        <v>494.9661296352763</v>
       </c>
       <c r="AD4" t="n">
-        <v>355171.8861348359</v>
+        <v>399920.6585127277</v>
       </c>
       <c r="AE4" t="n">
-        <v>485961.8436874317</v>
+        <v>547189.0882313702</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.773480609505641e-06</v>
+        <v>5.333506062746389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.584722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>439582.3273776338</v>
+        <v>494966.1296352763</v>
       </c>
     </row>
   </sheetData>
@@ -21838,28 +21838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.2628383774654</v>
+        <v>395.187920781958</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.3498003245544</v>
+        <v>540.7135476744784</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.2195737672837</v>
+        <v>489.1086055806559</v>
       </c>
       <c r="AD2" t="n">
-        <v>353262.8383774654</v>
+        <v>395187.920781958</v>
       </c>
       <c r="AE2" t="n">
-        <v>483349.8003245544</v>
+        <v>540713.5476744784</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.552691442695583e-06</v>
+        <v>5.265179637352389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.01111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>437219.5737672837</v>
+        <v>489108.6055806559</v>
       </c>
     </row>
     <row r="3">
@@ -21944,28 +21944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>348.2249362390027</v>
+        <v>398.4666550304752</v>
       </c>
       <c r="AB3" t="n">
-        <v>476.4567203621535</v>
+        <v>545.1996565208459</v>
       </c>
       <c r="AC3" t="n">
-        <v>430.9843596819957</v>
+        <v>493.1665664950195</v>
       </c>
       <c r="AD3" t="n">
-        <v>348224.9362390027</v>
+        <v>398466.6550304752</v>
       </c>
       <c r="AE3" t="n">
-        <v>476456.7203621535</v>
+        <v>545199.656520846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.555451308029332e-06</v>
+        <v>5.270872133716832e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>430984.3596819957</v>
+        <v>493166.5664950195</v>
       </c>
     </row>
   </sheetData>
@@ -22241,28 +22241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1211.242938214068</v>
+        <v>1290.354064266424</v>
       </c>
       <c r="AB2" t="n">
-        <v>1657.27602433158</v>
+        <v>1765.519357132973</v>
       </c>
       <c r="AC2" t="n">
-        <v>1499.107926570882</v>
+        <v>1597.020667610182</v>
       </c>
       <c r="AD2" t="n">
-        <v>1211242.938214068</v>
+        <v>1290354.064266424</v>
       </c>
       <c r="AE2" t="n">
-        <v>1657276.02433158</v>
+        <v>1765519.357132973</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.530542252853876e-06</v>
+        <v>2.689102361776728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1499107.926570882</v>
+        <v>1597020.667610182</v>
       </c>
     </row>
     <row r="3">
@@ -22347,28 +22347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.457068981689</v>
+        <v>628.0980623709895</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.152922674403</v>
+        <v>859.3914786668457</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.3102577735816</v>
+        <v>777.372362106397</v>
       </c>
       <c r="AD3" t="n">
-        <v>588457.0689816889</v>
+        <v>628098.0623709895</v>
       </c>
       <c r="AE3" t="n">
-        <v>805152.9226744031</v>
+        <v>859391.4786668457</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319586253319813e-06</v>
+        <v>4.075421544564609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.212499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>728310.2577735817</v>
+        <v>777372.3621063969</v>
       </c>
     </row>
     <row r="4">
@@ -22453,28 +22453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>467.6048214965859</v>
+        <v>507.1604740313148</v>
       </c>
       <c r="AB4" t="n">
-        <v>639.7975460404133</v>
+        <v>693.9193349106584</v>
       </c>
       <c r="AC4" t="n">
-        <v>578.7361662078114</v>
+        <v>627.6926475086879</v>
       </c>
       <c r="AD4" t="n">
-        <v>467604.821496586</v>
+        <v>507160.4740313148</v>
       </c>
       <c r="AE4" t="n">
-        <v>639797.5460404133</v>
+        <v>693919.3349106584</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.601937216825077e-06</v>
+        <v>4.571501049325874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.213888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>578736.1662078113</v>
+        <v>627692.6475086878</v>
       </c>
     </row>
     <row r="5">
@@ -22559,28 +22559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.9703557543123</v>
+        <v>447.6112596350618</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.2030391248849</v>
+        <v>612.4414726477792</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.9289245136911</v>
+        <v>553.9909180652799</v>
       </c>
       <c r="AD5" t="n">
-        <v>407970.3557543123</v>
+        <v>447611.2596350618</v>
       </c>
       <c r="AE5" t="n">
-        <v>558203.0391248849</v>
+        <v>612441.4726477792</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.728264269161764e-06</v>
+        <v>4.793452696960204e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>504928.924513691</v>
+        <v>553990.9180652798</v>
       </c>
     </row>
     <row r="6">
@@ -22665,28 +22665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>409.3079156991919</v>
+        <v>448.9488195799414</v>
       </c>
       <c r="AB6" t="n">
-        <v>560.0331476504493</v>
+        <v>614.2715811733436</v>
       </c>
       <c r="AC6" t="n">
-        <v>506.5843700501491</v>
+        <v>555.6463636017379</v>
       </c>
       <c r="AD6" t="n">
-        <v>409307.9156991919</v>
+        <v>448948.8195799414</v>
       </c>
       <c r="AE6" t="n">
-        <v>560033.1476504493</v>
+        <v>614271.5811733436</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.728725878366405e-06</v>
+        <v>4.794263726123302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.831944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>506584.370050149</v>
+        <v>555646.3636017379</v>
       </c>
     </row>
     <row r="7">
@@ -22771,28 +22771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>409.9628791164213</v>
+        <v>449.6037829971709</v>
       </c>
       <c r="AB7" t="n">
-        <v>560.9292974928493</v>
+        <v>615.1677310157436</v>
       </c>
       <c r="AC7" t="n">
-        <v>507.3949926093445</v>
+        <v>556.4569861609333</v>
       </c>
       <c r="AD7" t="n">
-        <v>409962.8791164213</v>
+        <v>449603.7829971709</v>
       </c>
       <c r="AE7" t="n">
-        <v>560929.2974928493</v>
+        <v>615167.7310157436</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.733034230943052e-06</v>
+        <v>4.801833331645544e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.819444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>507394.9926093445</v>
+        <v>556456.9861609333</v>
       </c>
     </row>
   </sheetData>
@@ -23068,28 +23068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1973.901052202036</v>
+        <v>2066.051620953184</v>
       </c>
       <c r="AB2" t="n">
-        <v>2700.778501991284</v>
+        <v>2826.862975552775</v>
       </c>
       <c r="AC2" t="n">
-        <v>2443.01999232767</v>
+        <v>2557.071140693124</v>
       </c>
       <c r="AD2" t="n">
-        <v>1973901.052202036</v>
+        <v>2066051.620953184</v>
       </c>
       <c r="AE2" t="n">
-        <v>2700778.501991284</v>
+        <v>2826862.975552775</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.17803512588254e-06</v>
+        <v>2.014308782202706e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.48194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2443019.99232767</v>
+        <v>2557071.140693123</v>
       </c>
     </row>
     <row r="3">
@@ -23174,28 +23174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>770.0352193540779</v>
+        <v>821.2395018701352</v>
       </c>
       <c r="AB3" t="n">
-        <v>1053.596158676536</v>
+        <v>1123.656116988519</v>
       </c>
       <c r="AC3" t="n">
-        <v>953.0424200239426</v>
+        <v>1016.415954244399</v>
       </c>
       <c r="AD3" t="n">
-        <v>770035.2193540778</v>
+        <v>821239.5018701352</v>
       </c>
       <c r="AE3" t="n">
-        <v>1053596.158676536</v>
+        <v>1123656.116988519</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.040098841663672e-06</v>
+        <v>3.488341665742862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>953042.4200239426</v>
+        <v>1016415.954244399</v>
       </c>
     </row>
     <row r="4">
@@ -23280,28 +23280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.5720234283689</v>
+        <v>641.776216435875</v>
       </c>
       <c r="AB4" t="n">
-        <v>808.0466966535556</v>
+        <v>878.1065324959909</v>
       </c>
       <c r="AC4" t="n">
-        <v>730.9278540256011</v>
+        <v>794.3012774648316</v>
       </c>
       <c r="AD4" t="n">
-        <v>590572.0234283688</v>
+        <v>641776.2164358749</v>
       </c>
       <c r="AE4" t="n">
-        <v>808046.6966535556</v>
+        <v>878106.5324959909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.35532888290046e-06</v>
+        <v>4.027349906266834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.743055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>730927.8540256011</v>
+        <v>794301.2774648316</v>
       </c>
     </row>
     <row r="5">
@@ -23386,28 +23386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.5390105191045</v>
+        <v>560.4853862627463</v>
       </c>
       <c r="AB5" t="n">
-        <v>710.8561946357401</v>
+        <v>766.8808323547971</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.0130771126396</v>
+        <v>693.6908020388628</v>
       </c>
       <c r="AD5" t="n">
-        <v>519539.0105191045</v>
+        <v>560485.3862627463</v>
       </c>
       <c r="AE5" t="n">
-        <v>710856.19463574</v>
+        <v>766880.8323547972</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.521543782348456e-06</v>
+        <v>4.31155886093634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>643013.0771126397</v>
+        <v>693690.8020388628</v>
       </c>
     </row>
     <row r="6">
@@ -23492,28 +23492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>460.9700975328896</v>
+        <v>502.0017246225518</v>
       </c>
       <c r="AB6" t="n">
-        <v>630.7196240099208</v>
+        <v>686.8609063816272</v>
       </c>
       <c r="AC6" t="n">
-        <v>570.5246283149653</v>
+        <v>621.3078654919008</v>
       </c>
       <c r="AD6" t="n">
-        <v>460970.0975328896</v>
+        <v>502001.7246225518</v>
       </c>
       <c r="AE6" t="n">
-        <v>630719.6240099209</v>
+        <v>686860.9063816272</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.629190541491404e-06</v>
+        <v>4.495622822658074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>570524.6283149653</v>
+        <v>621307.8654919008</v>
       </c>
     </row>
     <row r="7">
@@ -23598,28 +23598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>444.8038704849933</v>
+        <v>485.8354975746555</v>
       </c>
       <c r="AB7" t="n">
-        <v>608.6002789593872</v>
+        <v>664.7415613310935</v>
       </c>
       <c r="AC7" t="n">
-        <v>550.5163225113588</v>
+        <v>601.2995596882942</v>
       </c>
       <c r="AD7" t="n">
-        <v>444803.8704849933</v>
+        <v>485835.4975746555</v>
       </c>
       <c r="AE7" t="n">
-        <v>608600.2789593872</v>
+        <v>664741.5613310935</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.659883212486707e-06</v>
+        <v>4.548103869595262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.741666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>550516.3225113588</v>
+        <v>601299.5596882942</v>
       </c>
     </row>
     <row r="8">
@@ -23704,28 +23704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>445.4817145670928</v>
+        <v>486.513341656755</v>
       </c>
       <c r="AB8" t="n">
-        <v>609.5277351368861</v>
+        <v>665.6690175085924</v>
       </c>
       <c r="AC8" t="n">
-        <v>551.3552635729702</v>
+        <v>602.1385007499056</v>
       </c>
       <c r="AD8" t="n">
-        <v>445481.7145670928</v>
+        <v>486513.341656755</v>
       </c>
       <c r="AE8" t="n">
-        <v>609527.7351368861</v>
+        <v>665669.0175085925</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.664479699447356e-06</v>
+        <v>4.555963350054454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.729166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>551355.2635729702</v>
+        <v>602138.5007499056</v>
       </c>
     </row>
   </sheetData>
@@ -24001,28 +24001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.1099907239509</v>
+        <v>412.9375615244345</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.1913527076036</v>
+        <v>564.9993891972186</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.6446692211442</v>
+        <v>511.0766404738586</v>
       </c>
       <c r="AD2" t="n">
-        <v>364109.990723951</v>
+        <v>412937.5615244345</v>
       </c>
       <c r="AE2" t="n">
-        <v>498191.3527076037</v>
+        <v>564999.3891972187</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.293898269398857e-06</v>
+        <v>4.916880538984102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>450644.6692211442</v>
+        <v>511076.6404738586</v>
       </c>
     </row>
   </sheetData>
@@ -24298,28 +24298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.4213302719941</v>
+        <v>706.6054532678986</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.9351586420738</v>
+        <v>966.8087543936416</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.0009961331133</v>
+        <v>874.5378837989209</v>
       </c>
       <c r="AD2" t="n">
-        <v>650421.3302719941</v>
+        <v>706605.4532678986</v>
       </c>
       <c r="AE2" t="n">
-        <v>889935.1586420739</v>
+        <v>966808.7543936416</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.097258620678058e-06</v>
+        <v>3.864057517264649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.81388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>805000.9961331133</v>
+        <v>874537.8837989209</v>
       </c>
     </row>
     <row r="3">
@@ -24404,28 +24404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.2423258186773</v>
+        <v>422.6700503729743</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.1055458770347</v>
+        <v>578.3158098068957</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.7993323758098</v>
+        <v>523.1221605902617</v>
       </c>
       <c r="AD3" t="n">
-        <v>385242.3258186773</v>
+        <v>422670.0503729744</v>
       </c>
       <c r="AE3" t="n">
-        <v>527105.5458770348</v>
+        <v>578315.8098068957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.753396994724965e-06</v>
+        <v>5.072948205138927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.237500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>476799.3323758098</v>
+        <v>523122.1605902617</v>
       </c>
     </row>
     <row r="4">
@@ -24510,28 +24510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>377.4291003544371</v>
+        <v>414.8568249087341</v>
       </c>
       <c r="AB4" t="n">
-        <v>516.4151461016811</v>
+        <v>567.6254100315421</v>
       </c>
       <c r="AC4" t="n">
-        <v>467.1292093509456</v>
+        <v>513.4520375653974</v>
       </c>
       <c r="AD4" t="n">
-        <v>377429.1003544371</v>
+        <v>414856.8249087341</v>
       </c>
       <c r="AE4" t="n">
-        <v>516415.146101681</v>
+        <v>567625.4100315421</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.785730344167795e-06</v>
+        <v>5.132520220121283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.141666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>467129.2093509457</v>
+        <v>513452.0375653974</v>
       </c>
     </row>
     <row r="5">
@@ -24616,28 +24616,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.5358029356798</v>
+        <v>415.9635274899767</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.9293853976093</v>
+        <v>569.1396493274704</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.4989317737185</v>
+        <v>514.8217599881705</v>
       </c>
       <c r="AD5" t="n">
-        <v>378535.8029356798</v>
+        <v>415963.5274899767</v>
       </c>
       <c r="AE5" t="n">
-        <v>517929.3853976093</v>
+        <v>569139.6493274703</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.789649538039652e-06</v>
+        <v>5.139741070422175e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.130555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>468498.9317737186</v>
+        <v>514821.7599881705</v>
       </c>
     </row>
   </sheetData>
@@ -24913,28 +24913,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>954.7470774558876</v>
+        <v>1022.658086287632</v>
       </c>
       <c r="AB2" t="n">
-        <v>1306.32707184349</v>
+        <v>1399.245910149344</v>
       </c>
       <c r="AC2" t="n">
-        <v>1181.653049548307</v>
+        <v>1265.703844338659</v>
       </c>
       <c r="AD2" t="n">
-        <v>954747.0774558876</v>
+        <v>1022658.086287632</v>
       </c>
       <c r="AE2" t="n">
-        <v>1306327.07184349</v>
+        <v>1399245.910149344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.736366965671308e-06</v>
+        <v>3.101892867096192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.57638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1181653.049548307</v>
+        <v>1265703.844338659</v>
       </c>
     </row>
     <row r="3">
@@ -25019,28 +25019,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.6242256596698</v>
+        <v>548.1077060096101</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.6079074127604</v>
+        <v>749.9451441677428</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.3653281790097</v>
+        <v>678.3714321629932</v>
       </c>
       <c r="AD3" t="n">
-        <v>499624.2256596698</v>
+        <v>548107.7060096101</v>
       </c>
       <c r="AE3" t="n">
-        <v>683607.9074127604</v>
+        <v>749945.1441677428</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.479872885687572e-06</v>
+        <v>4.430111933421607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.805555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>618365.3281790097</v>
+        <v>678371.4321629932</v>
       </c>
     </row>
     <row r="4">
@@ -25125,28 +25125,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.6091497549926</v>
+        <v>446.0072892503613</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.0263799724678</v>
+        <v>610.2468496052525</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.1052658137145</v>
+        <v>552.0057467657592</v>
       </c>
       <c r="AD4" t="n">
-        <v>397609.1497549926</v>
+        <v>446007.2892503613</v>
       </c>
       <c r="AE4" t="n">
-        <v>544026.3799724678</v>
+        <v>610246.8496052525</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.737246366564422e-06</v>
+        <v>4.889890874334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.977777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>492105.2658137145</v>
+        <v>552005.7467657592</v>
       </c>
     </row>
     <row r="5">
@@ -25231,28 +25231,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>393.6166044526663</v>
+        <v>442.0147439480349</v>
       </c>
       <c r="AB5" t="n">
-        <v>538.5636033511576</v>
+        <v>604.7840729839421</v>
       </c>
       <c r="AC5" t="n">
-        <v>487.1638489260869</v>
+        <v>547.0643298781315</v>
       </c>
       <c r="AD5" t="n">
-        <v>393616.6044526663</v>
+        <v>442014.7439480349</v>
       </c>
       <c r="AE5" t="n">
-        <v>538563.6033511575</v>
+        <v>604784.0729839421</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.753125854388834e-06</v>
+        <v>4.918258420474594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.931944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>487163.8489260869</v>
+        <v>547064.3298781315</v>
       </c>
     </row>
     <row r="6">
@@ -25337,28 +25337,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.4969344547812</v>
+        <v>433.3519914183906</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.7681096974698</v>
+        <v>592.9313127992137</v>
       </c>
       <c r="AC6" t="n">
-        <v>488.2533988772424</v>
+        <v>536.3427804899802</v>
       </c>
       <c r="AD6" t="n">
-        <v>394496.9344547812</v>
+        <v>433351.9914183906</v>
       </c>
       <c r="AE6" t="n">
-        <v>539768.1096974697</v>
+        <v>592931.3127992137</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.757370865985459e-06</v>
+        <v>4.925841823898316e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.919444444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>488253.3988772423</v>
+        <v>536342.7804899802</v>
       </c>
     </row>
   </sheetData>
